--- a/dataset/cleaned_reviews.xlsx
+++ b/dataset/cleaned_reviews.xlsx
@@ -31,7 +31,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,13 +72,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -439,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1356,9 +1362,9 @@
           <t>Nötr</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>Nötr</t>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1544,6 +1550,4173 @@
         </is>
       </c>
       <c r="J21" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Hayatımda oynadığım en güzel oyunlardan biri.Her ne kadar sinir bozucu çıldırtıcı olsa da keşif hissiyatı , bölüm dizaynı falan baya güzel bir oyun.</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>İkili valiant gargoyle bossunu tasarlayanın cennette yeri yok oyunu sevmek istiyorsanız maharoga olmanız gerekiyor birazda akıl sağlığınızı kaybedebilirsiniz efso oyun</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>kuşları tasarlayan ruh hastasının yatacak yeri yok</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>İkili valiant gargoyle bossunu tasarlayanın cennette yeri yok efsane oyun</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Aşığım sana aşık</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cinsel penisli seks maceraları</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>COK İYİ AW</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>kardeşim elden ring i sevmediğini söyletince onu tutup duvara yapıştırdım kötü diyen  oyunun başındaki ata ölüp ağlamıştır ps de 300 saatim var buradada 100 olur oynayın ve zorla oynattırın</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Peak.</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1 week 4 end (real Elden Lord)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>I think, I miss my wife</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>380 saat oynamışım yeni bitirdim daha yapmadıgım bir ton quest var siz bilirsinz verdiginiz paraya değer bence bu tür ü merak ediyorsanız ve ilgi duyuyorsanız denemenizi tavsiye ederim .</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>There is no sex</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>10 numara mal</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">maleniayı tasarliyanin evinde 31 cekeyim
+</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>atlı bi adam vardı onu kestim sonunda. müthiş oyun bakalım ileride neler keşfedicem</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>absolute cinema</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>saatlerce kasıldım bossları kekliyom bu amına kodum ıstakoz la ayısı tecavüz ediyor sizin yapacagınız dengenin mk</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>güzel</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>BU OYNU SEVMEYEN SİKTİR GİTSİN .</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Efsanee</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>olm noluyo aq dev kesiyodum bi anda tüm başarımlar geldi almadığım ammına</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Dark Souls 3 e en sevdiğim oyun demiştim o sırada Elden Ring i oynamamıştım</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Neredeyse en iyi fromSoftware oyunu</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>kumar gibi birşey amk akıllanmıyorsun batsanda  önermiyorum ama öneriyorum kanser olmak istemiyorsanız bu aw oyununu oynamayın gidin çoluğunuza çocuğunuza ekmek yedirin</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>daha iyisi gelene kadar en iyisi bu</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>amına koyim çok güzel</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>emin olmak için biraz daha oynayacağım</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>En Kolay Souls Oyunu 😎</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">pornografik bi oyun
+</t>
+        </is>
+      </c>
+      <c r="C51" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E51" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>güzel</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>boss kesiyorsunnnnnnnn</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>souls serisini seviyorsan güzel oyun sevmiyorsan kanser</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>beating second time</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Başyapıt</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>evrenin en iyi oyunu deriz mesela</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>İYİ</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>oyunda hackerlar var invidar olarak gelip dünyanızın içinden geçebiliyor tek başınıza oynayacaksanız güzel oyun ama birisiyle beraber gezeriz keşfederiz diyorsanız ilerlemenizin bir güvencesi yok sorun yaşarsanız destekte yok madem destek sunmuyorsunuz bari gelen oyuncu baskınlarını kapatabilelim be amın evlatları böyle işmi olur</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>60+ saatlik saveimde bütün yan bosslarım hacker bir invader tarafından kesildi ve oyunu gram oynayasım kalmadı . Arkadaşımla multiplayer olarak dünyada geziyorduk ,bir tane invader dünyama girdi ve arkadaşım da ben de yokluktan aşağı düşerek sürekli olarak ölmeye başladık. Oyundan çıkıp girmek zorunda kaldık .Aynı invader sonrasında aynı yerde ikinciye bize aynı sorunu yasattı. Umursamadım bug vs oldugunu düsündüm ama o günden sonra daha önce girmediğim magaralarda yan bosslar kesilmisti (boss yerinde yok sadece geri dönüs icin olan sey var) ve random ısınlandıgım gracelerde yoktan ekranıma itemler düsüyodu. İnternette bununla ilgili bir cözüm de göremedim. Oyun zevkiniz mahvolmasın istiyorsanız multiplayer girmeyin.</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>maliketh den nefret ediyorum</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>gtg</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>güzel</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mohg'u imha edin.</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Evet! Öneririm.</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Herkesin hayatında en az 1 kere oynaması gereken oyun. Direniş bitince alırsınız malum devlet yüzde 20 vergi alıyor.</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>oyun vazgeçemediğin toksik ilişki gibi. sinir, stres, kaos, küfür ne varsa yaşıyorsun ama vazgeçemiyorsun bağımlılık yapıyor.</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Millicent best girl and the Age of Order ending is the best outcome for humanity.</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>İyi gibi</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Çoktan crackte oynadım bitirdim, çok iyi oyun. Oynayın, indirimde alın ama harçlığınızla da almayın</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>O EN BASTAKİ OROS?PU COCUGUNA VURMAYIN
+ELİNDE GÜLLE DOVUO MK</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>allahın unuttuğu bir evrende allahın belası bosslar ile savaşma oyunu</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Daha oyun başı en az 20 defa öldüm umarım böyle devam etmez aklımı kaçırıcam yoksa</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Bu oyun hayatımda oynadığım en iyi açık dünya deneyimini sağladı bana. Keşif hissini en son skyrim oynarken böyle hissetmiştim. Gerçekten harika bir deneyimdi</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>63 lvle kadar kasıldım ananı sikmeye geliyorum godrick.</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>güzel</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Başyapıt, başlarda akıl sağlığınız kaybediyorsunuz eğer ilk souls oyununuzsa sonra bağımlılık yapıyor</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Ya yapacağınız oyunu sikim daha ata binemeden oyunu silme noktasına geldim ya.O kuşların ayaklarındaki kılıçları ananıza,kalkanını yere vurup sendeleten düşmanın kılıcını boydan boya size,kırkayaklı düşmanın kılıçlarını da sülalenize sokayım</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E78" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Köpekler ve kuşlar oyundan kaldırılmalı</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>keşke oyunun elleri olsa da öpebilsem</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>güzel</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>S3KS</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>bok gibi oyunmuş aq</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[b] &lt;3 came for waifus, stayed for waifus (also lore but we don't talk about that) &lt;3 [/b]
+91/100</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>kafasına göre takılmak isteyenler için ideal</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Gerek açık dünyası ile, oyundaki keşiflerinizde yardımcı olan npc lere kadar muhteşem bir oyun. Boss fightları diğer souls oyunlarına kıyasla kolay olsa da benim gibi ilk souls oyunu elden ring olan insanlar için yine de zorlayıcı olacaktır. İlk 6. saatten sonra oyunu bırakma kararı aldım fakat sonra inat edip devam ettim ve şimdi çok daha eğlenceli ve merak uyandırıcı olmaya başladı. Oyun kısaca ilk 20. saatten sonra başlıyor bilginize.</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>fenaaaa sariooo</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Limgrave'deki o devi kim tasarladıysa, kim fikri öne sürdüyse onun ben amına koyayım. ne devmiş be, 1.5 saattir geçemedim, belki de ben rezalet oynuyorumdur ama yok... herif hasar yemiyor la. Oyunun başına böyle eleman konur mu hiç, normal biri olsa oyundan soğur. fakat ben takıntıl bi manyak olduğum için o devi öldürene kadar bırakmam. Ama Allah belamı versin ki şu 3 saatte eğlendiğim kadar başka bir oyunda eğlenmedim.</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Oynamaya başlayınca hayatımı esir alan, geceleri uykuya dalmaya çalışırken ''şuraya da gitseydim, şu komboyu da yapsaydım'' diye düşündüğüm, açık dünyayı ve keşif duygusunu  hayvan gibi hissettiren, rüyalarıma kadar giren ve tekrar uyanır uyanmaz başına geçtiğim kusursuz şaheser.
+Bazı sinir krizi geçirten, sapıkça tercih ve tasarımlar olsa da sonuçta bir Miyazaki eseri. 
+İşiniz gücünüz yoksa mutlaka girin.
+BEST GAME BESTT GAMEE BESTTT GAMEEEE</t>
+        </is>
+      </c>
+      <c r="C89" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>iyi 10/10 aciklanacak hicbir sey yok</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Akıl sağlınıza güveniyorsaniz alın 👍🏻ANA MENÜDE ÖLDÜM😎</t>
+        </is>
+      </c>
+      <c r="C91" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Güzel oyun.</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>PANELİ YENİ YENİ KEŞFEDEN TÜRKİYEDEKİ YAZILIMCILAR BİLE OPTİMİZASYONU DAHA İYİ YAPARDI  AYRICA TÜRKÇE DE YOK</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>idare eder.</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ilk saatlerdeki havası bi başka gibi geliyor fakat ne kadar kudurtsa da bu oyun çok zevkli :D</t>
+        </is>
+      </c>
+      <c r="C95" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>HERŞEY DÜŞMAN</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>eğeğeğeğeeğeğeğe bağımlı oldum eğeğeğeğeğeğe dlc radahn ananı avradını sikeyim.</t>
+        </is>
+      </c>
+      <c r="C97" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E97" s="4" t="inlineStr">
+        <is>
+          <t>Olumsuz</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CRUCİBLE KNİGHTLARI YAPAN ADAMIN ŞEHİR MEYDANINDA YAKILIP İBRETLİK OLSUN DİYE KÜLLERİNİ S*KMELERİ LAZIM</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>goat</t>
+        </is>
+      </c>
+      <c r="C99" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Best Game Ever ı play</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1245620</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>oynadığım en iyi 2. oyun</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>Olumlu</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Nötr</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
         <is>
           <t>Nötr</t>
         </is>
@@ -1600,10 +5773,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -1613,13 +5786,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
@@ -1629,13 +5802,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -1651,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1661,13 +5834,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
@@ -1683,7 +5856,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1699,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -1709,13 +5882,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +5902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,7 +5929,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1792,51 +5965,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>saat</t>
+          <t>oyun</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>hala</t>
+          <t>ama</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>not</t>
+          <t>yok</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ilk</t>
+          <t>daha</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>anneni</t>
+          <t>bir</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1846,473 +6019,473 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>yen</t>
+          <t>kadar</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sikeyim</t>
+          <t>ben</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>oynu</t>
+          <t>gibi</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bitirdiginizde</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>huzurluca</t>
+          <t>oyunu</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>olebilirisiniz</t>
+          <t>elden</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>oyunun</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>build</t>
+          <t>icin</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>oturtamadim</t>
+          <t>invader</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>basyapit</t>
+          <t>oyundan</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>zor</t>
+          <t>ayni</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>gelecektir</t>
+          <t>best</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>pes</t>
+          <t>for</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>etmeyin</t>
+          <t>oynu</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mucadele</t>
+          <t>saat</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>edin</t>
+          <t>hala</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>farkli</t>
+          <t>basyapit</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>yollar</t>
+          <t>edin</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>deneyin</t>
+          <t>not</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>kesif</t>
+          <t>ilk</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>yapin</t>
+          <t>souls</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tadini</t>
+          <t>anneni</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cikarin</t>
+          <t>yen</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hayat</t>
+          <t>sikeyim</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>gibi</t>
+          <t>maliketh</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>souls</t>
+          <t>saatte</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>oyunum</t>
+          <t>cok</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>very</t>
+          <t>allah</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>good</t>
+          <t>yeri</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>istiyorsaniz</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cannot</t>
+          <t>akil</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>kill</t>
+          <t>ring</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>god</t>
+          <t>var</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>iyisi</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>yan</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>maleni</t>
+          <t>multiplayer</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>seni</t>
+          <t>olarak</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ters</t>
+          <t>bosslar</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>duz</t>
+          <t>the</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>yatirip</t>
+          <t>allahin</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>antin</t>
+          <t>oldum</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>gotune</t>
+          <t>boyle</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>pompalayim</t>
+          <t>olsa</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>maliketh</t>
+          <t>waifus</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>saatte</t>
+          <t>devi</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>kim</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>basarim</t>
+          <t>bitirdiginizde</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2322,7 +6495,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>yaptim</t>
+          <t>huzurluca</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2332,7 +6505,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>dusunun</t>
+          <t>olebilirisiniz</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2342,7 +6515,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>nasil</t>
+          <t>137</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2352,7 +6525,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>oyun</t>
+          <t>build</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2362,7 +6535,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>cok</t>
+          <t>oturtamadim</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2372,7 +6545,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>keyifli</t>
+          <t>zor</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2382,7 +6555,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>gecti</t>
+          <t>gelecektir</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2392,7 +6565,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ama</t>
+          <t>pes</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2402,7 +6575,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>margit</t>
+          <t>etmeyin</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2412,7 +6585,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>izzeti</t>
+          <t>mucadele</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2422,7 +6595,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ikramini</t>
+          <t>farkli</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2432,7 +6605,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>oyna</t>
+          <t>yollar</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2442,7 +6615,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>iste</t>
+          <t>deneyin</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2452,7 +6625,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>alla</t>
+          <t>kesif</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2462,7 +6635,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>allah</t>
+          <t>yapin</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2472,7 +6645,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>neyine</t>
+          <t>tadini</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2482,10 +6655,270 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>bakiyon</t>
+          <t>cikarin</t>
         </is>
       </c>
       <c r="B75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>hayat</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>oyunum</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>very</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>good</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>man</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>cannot</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>kill</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>god</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>you</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>maleni</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>seni</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ters</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>duz</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>yatirip</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>antin</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>gotune</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>pompalayim</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>basarim</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>yaptim</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>dusunun</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>nasil</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>keyifli</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gecti</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>margit</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>izzeti</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
         <v>1</v>
       </c>
     </row>
